--- a/biology/Zoologie/Anacampsis_populella/Anacampsis_populella.xlsx
+++ b/biology/Zoologie/Anacampsis_populella/Anacampsis_populella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anacampsis populella est une espèce de petits insectes de l'ordre des lépidoptères (papillons) de la famille des Gelechiidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce microlépidoptère de 14 à 19 mm d'envergure, aux ailes grises quand elles sont repliées, est très mimétique le jour, posé sur les écorces.
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Europe, de l'Espagne à la Scandinavie et à la Roumanie. Présent dans les îles Britanniques mais localisé, présent dans le Nord de la France, aussi en Belgique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Europe, de l'Espagne à la Scandinavie et à la Roumanie. Présent dans les îles Britanniques mais localisé, présent dans le Nord de la France, aussi en Belgique.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte, nocturne, vole de juin à septembre ; la larve consomme les feuilles de peupliers (Populus) et de saules (Salix) qu'elle enroule en forme de fin cigare comme le font des cigariers (charançons).
 </t>
